--- a/selenium/TestData/test.xlsx
+++ b/selenium/TestData/test.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace-mkt\selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317347F3-5E35-454A-9323-AC951D38D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B67A79A-5ABE-442F-948F-C9B94091FD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="amazon_login" sheetId="2" r:id="rId2"/>
+    <sheet name="amazon_signup" sheetId="3" r:id="rId3"/>
+    <sheet name="GTM" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>USERNAME</t>
   </si>
@@ -44,6 +46,72 @@
   </si>
   <si>
     <t>q1w2e3</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>MobleNo</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>AddChinna</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MobikeNo</t>
+  </si>
+  <si>
+    <t>veer</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Aadhar</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Mupparaju</t>
+  </si>
+  <si>
+    <t>Veer</t>
+  </si>
+  <si>
+    <t>veer123@gmail.com</t>
+  </si>
+  <si>
+    <t>Ph.No</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>AndhraPradesh</t>
+  </si>
+  <si>
+    <t>ANMPO1234Z</t>
   </si>
 </sst>
 </file>
@@ -374,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -409,6 +477,9 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
       <c r="B4">
         <v>9848012345</v>
       </c>
@@ -424,12 +495,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CDF027-0C63-47DE-82F5-5C544F5DA6DB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9063332478</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6B4E43-7D25-417F-A67E-2F8D43C1E90E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1234567890</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C337A57B-033E-4CD7-9660-4CAD88E7942B}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>9848012345</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>123456789123</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DADA7850-C634-447F-B26D-8BC2B33A6B02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>